--- a/static/example.xlsx
+++ b/static/example.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>题目</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -93,6 +93,94 @@
   </si>
   <si>
     <t>ABC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项F</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项G</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项H</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项I</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项J</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项K</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项L</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项M</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项O</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项Q</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项R</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项S</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项T</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项U</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项V</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项W</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项X</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项Y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项Z</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -100,7 +188,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +217,13 @@
       <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -181,10 +276,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -209,8 +305,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -480,18 +577,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:AD6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,8 +613,74 @@
       <c r="H1" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="I1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -543,7 +706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -569,7 +732,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -587,7 +750,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -605,7 +768,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>16</v>
       </c>

--- a/static/example.xlsx
+++ b/static/example.xlsx
@@ -64,123 +64,123 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>选项D</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+1=？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+2&gt;？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+1=2？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断题</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>对</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项E</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项F</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项G</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项H</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项I</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项J</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项K</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项L</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项M</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项O</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项P</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项Q</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项R</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项S</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项T</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项U</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项V</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项W</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项X</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项Y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项Z</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>选项C</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项D</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1+1=？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1+2&gt;？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1+1=2？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>判断题</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>对</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ABC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项E</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项F</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项G</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项H</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项I</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项J</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项K</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项L</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项M</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项O</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项P</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项Q</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项R</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项S</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项T</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项U</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项V</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项W</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项X</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项Y</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项Z</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -580,7 +580,7 @@
   <dimension ref="A1:AD6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -605,84 +605,84 @@
         <v>10</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="I1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -708,13 +708,13 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
@@ -752,7 +752,7 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>8</v>
@@ -770,13 +770,13 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
